--- a/script/DeepSTL_convert/px4_docs/px4_orbit/result.xlsx
+++ b/script/DeepSTL_convert/px4_docs/px4_orbit/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15540"/>
+    <workbookView windowHeight="15580"/>
   </bookViews>
   <sheets>
     <sheet name="mtl" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="139">
   <si>
     <t>index</t>
   </si>
@@ -74,6 +74,9 @@
     <t>O represents Orbit mode, C represents circular flight, and Y represents yawing towards the center. This formula states that globally, when in Orbit mode, the vehicle will fly in a circle and yaw towards the center.</t>
   </si>
   <si>
+    <t>{'section-id': 1, 'sentence-id': 6, 'sentence': '5.This mode is currently only supported on multicopter (or VTOL in MC mode).', 'tl': 'always ( Thiscurrently == nlyonlportedmulticopter or ( VTOL == MC ) )'}</t>
+  </si>
+  <si>
     <t>state transition pre-requirement</t>
   </si>
   <si>
@@ -441,9 +444,6 @@
   </si>
   <si>
     <t>{'section-id': 5, 'sentence-id': 1, 'sentence': '1.MAV_CMD_DO_ORBIT - Start an orbit with specified center point, radius, direction, altitude, speed and yaw direction (vehicle defaults to faceing centre of orbit).', 'tl': 'always ( eMAV_CMD_ODORBITStar == tarStiwitedced = icer ) until ( eradidiud == icedretictidreditedred = dredat ) -&gt; ( edtdtndawleda == Sicedtinedahecoicedehe ) and ( ectonveicicedahe == edahecedatsfatsfaceced'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 1, 'sentence-id': 6, 'sentence': '5.This mode is currently only supported on multicopter (or VTOL in MC mode).', 'tl': 'always ( Thiscurrently == nlyonlportedmulticopter or ( VTOL == MC ) )'}</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,13 +467,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -941,148 +934,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1437,10 +1430,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A30"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1503,10 +1496,10 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
       </c>
       <c r="I2" t="s">
         <v>7</v>
@@ -1515,10 +1508,10 @@
         <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1526,19 +1519,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
@@ -1553,7 +1546,7 @@
         <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L3" t="s">
         <v>7</v>
@@ -1564,37 +1557,37 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" t="s">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" t="s">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1602,37 +1595,37 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>7</v>
+        <v>31</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>7</v>
+        <v>31</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" t="s">
-        <v>7</v>
+        <v>31</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1643,34 +1636,34 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>7</v>
+        <v>36</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
+        <v>36</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" t="s">
-        <v>7</v>
+        <v>36</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1678,37 +1671,37 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s">
-        <v>7</v>
+        <v>41</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" t="s">
-        <v>7</v>
+        <v>41</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" t="s">
-        <v>7</v>
+        <v>41</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1716,37 +1709,37 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" t="s">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" t="s">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1757,16 +1750,16 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
         <v>7</v>
@@ -1795,16 +1788,16 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
         <v>7</v>
@@ -1813,10 +1806,10 @@
         <v>7</v>
       </c>
       <c r="I10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" t="s">
-        <v>7</v>
+        <v>56</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
       </c>
       <c r="K10" t="s">
         <v>7</v>
@@ -1830,37 +1823,37 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" t="s">
-        <v>7</v>
+        <v>61</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
+        <v>61</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11" t="s">
-        <v>7</v>
+        <v>61</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1871,34 +1864,34 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" t="s">
-        <v>7</v>
+        <v>66</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J12" t="s">
-        <v>7</v>
+        <v>66</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>65</v>
-      </c>
-      <c r="L12" t="s">
-        <v>7</v>
+        <v>66</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1909,16 +1902,16 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
         <v>7</v>
@@ -1947,16 +1940,16 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s">
         <v>7</v>
@@ -1965,16 +1958,16 @@
         <v>7</v>
       </c>
       <c r="I14" t="s">
-        <v>74</v>
-      </c>
-      <c r="J14" t="s">
-        <v>7</v>
+        <v>75</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" t="s">
-        <v>7</v>
+        <v>75</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1985,16 +1978,16 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
         <v>7</v>
@@ -2023,16 +2016,16 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s">
         <v>7</v>
@@ -2061,10 +2054,10 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2075,16 +2068,16 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s">
         <v>7</v>
@@ -2113,10 +2106,10 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2127,16 +2120,16 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G20" t="s">
         <v>7</v>
@@ -2165,16 +2158,16 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G21" t="s">
         <v>7</v>
@@ -2200,37 +2193,37 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G22" t="s">
-        <v>101</v>
-      </c>
-      <c r="H22" t="s">
-        <v>7</v>
+        <v>102</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>101</v>
-      </c>
-      <c r="J22" t="s">
-        <v>7</v>
+        <v>102</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>101</v>
-      </c>
-      <c r="L22" t="s">
-        <v>7</v>
+        <v>102</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2241,16 +2234,16 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G23" t="s">
         <v>7</v>
@@ -2279,16 +2272,16 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G24" t="s">
         <v>7</v>
@@ -2314,25 +2307,25 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G25" t="s">
-        <v>113</v>
-      </c>
-      <c r="H25" t="s">
-        <v>7</v>
+        <v>114</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
       </c>
       <c r="I25" t="s">
         <v>7</v>
@@ -2341,10 +2334,10 @@
         <v>7</v>
       </c>
       <c r="K25" t="s">
-        <v>113</v>
-      </c>
-      <c r="L25" t="s">
-        <v>7</v>
+        <v>114</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2352,25 +2345,25 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G26" t="s">
-        <v>117</v>
-      </c>
-      <c r="H26" t="s">
-        <v>7</v>
+        <v>118</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
       </c>
       <c r="I26" t="s">
         <v>7</v>
@@ -2379,10 +2372,10 @@
         <v>7</v>
       </c>
       <c r="K26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L26" t="s">
-        <v>7</v>
+        <v>118</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2393,16 +2386,16 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G27" t="s">
         <v>7</v>
@@ -2411,16 +2404,16 @@
         <v>7</v>
       </c>
       <c r="I27" t="s">
-        <v>122</v>
-      </c>
-      <c r="J27" t="s">
-        <v>7</v>
+        <v>123</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>122</v>
-      </c>
-      <c r="L27" t="s">
-        <v>7</v>
+        <v>123</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2431,22 +2424,22 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G28" t="s">
-        <v>127</v>
-      </c>
-      <c r="H28" t="s">
-        <v>7</v>
+        <v>128</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
       </c>
       <c r="I28" t="s">
         <v>7</v>
@@ -2455,10 +2448,10 @@
         <v>7</v>
       </c>
       <c r="K28" t="s">
-        <v>127</v>
-      </c>
-      <c r="L28" t="s">
-        <v>7</v>
+        <v>128</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2466,37 +2459,37 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G29" t="s">
-        <v>132</v>
-      </c>
-      <c r="H29" t="s">
-        <v>7</v>
+        <v>133</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>132</v>
-      </c>
-      <c r="J29" t="s">
-        <v>7</v>
+        <v>133</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>132</v>
-      </c>
-      <c r="L29" t="s">
-        <v>7</v>
+        <v>133</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2507,28 +2500,28 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G30" t="s">
-        <v>137</v>
-      </c>
-      <c r="H30" t="s">
-        <v>7</v>
+        <v>138</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>137</v>
-      </c>
-      <c r="J30" t="s">
-        <v>7</v>
+        <v>138</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
       </c>
       <c r="K30" t="s">
         <v>7</v>
@@ -2651,7 +2644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -2670,23 +2663,19 @@
       <c r="F34" t="s">
         <v>7</v>
       </c>
-      <c r="G34" t="s">
-        <v>138</v>
-      </c>
-      <c r="H34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34" t="s">
-        <v>7</v>
-      </c>
-      <c r="J34" t="s">
-        <v>7</v>
-      </c>
-      <c r="K34" t="s">
-        <v>138</v>
-      </c>
-      <c r="L34" t="s">
-        <v>7</v>
+    </row>
+    <row r="35" spans="8:12">
+      <c r="H35">
+        <f>COUNTIF(H2:H33,0)</f>
+        <v>11</v>
+      </c>
+      <c r="J35">
+        <f>COUNTIF(J2:J33,0)</f>
+        <v>13</v>
+      </c>
+      <c r="L35">
+        <f>COUNTIF(L2:L33,0)</f>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
